--- a/docs/StructureDefinition-BRRegulacaoAssistencial.xlsx
+++ b/docs/StructureDefinition-BRRegulacaoAssistencial.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1287,7 +1287,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -3356,15 +3356,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="73.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.4453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="70.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.90234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3375,27 +3375,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.32421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.87890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="68.76171875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8231,7 +8231,7 @@
         <v>284</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-BRRegulacaoAssistencial.xlsx
+++ b/docs/StructureDefinition-BRRegulacaoAssistencial.xlsx
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://www.saude.gov.br)</t>
+    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
